--- a/output/1Y_P14_KFSDIV.xlsx
+++ b/output/1Y_P14_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.0976</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.8505</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="F3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="H3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0223</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.8576</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E4" s="1">
-        <v>1822.7122</v>
+        <v>1819.0653</v>
       </c>
       <c r="F4" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="H4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9727</v>
+        <v>10.9947</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.5699</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E5" s="1">
-        <v>2666.0532</v>
+        <v>2660.717</v>
       </c>
       <c r="F5" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="H5" s="1">
-        <v>33512.0225</v>
+        <v>33378.1625</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>33512.0225</v>
+        <v>33378.1625</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2526</v>
+        <v>11.2752</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0601</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.5994</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E6" s="1">
-        <v>3461.6045</v>
+        <v>3454.6765</v>
       </c>
       <c r="F6" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="H6" s="1">
-        <v>47075.7443</v>
+        <v>46887.5611</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>47075.7443</v>
+        <v>46887.5611</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.5553</v>
+        <v>11.5785</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1199.724</v>
+        <v>1197.3226</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8800.276</v>
+        <v>-8802.6774</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0819</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.6663</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E7" s="1">
-        <v>4196.9311</v>
+        <v>4188.5353</v>
       </c>
       <c r="F7" s="1">
-        <v>693.5211</v>
+        <v>692.1104</v>
       </c>
       <c r="H7" s="1">
-        <v>61553.4501</v>
+        <v>61307.5916</v>
       </c>
       <c r="I7" s="1">
-        <v>1199.724</v>
+        <v>1197.3226</v>
       </c>
       <c r="J7" s="1">
-        <v>62753.174</v>
+        <v>62504.9142</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.9135</v>
+        <v>11.9373</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10171.3891</v>
+        <v>-10171.0461</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09950000000000001</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.701</v>
       </c>
       <c r="C8" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D8" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E8" s="1">
-        <v>4890.4522</v>
+        <v>4880.6457</v>
       </c>
       <c r="F8" s="1">
-        <v>691.8842</v>
+        <v>690.4752999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>71894.5379</v>
+        <v>71606.8811</v>
       </c>
       <c r="I8" s="1">
-        <v>1028.3348</v>
+        <v>1026.2766</v>
       </c>
       <c r="J8" s="1">
-        <v>72922.87270000001</v>
+        <v>72633.1577</v>
       </c>
       <c r="K8" s="1">
-        <v>60171.3891</v>
+        <v>60171.0461</v>
       </c>
       <c r="L8" s="1">
-        <v>12.3038</v>
+        <v>12.3285</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10171.3891</v>
+        <v>-10171.0461</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0023</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.8109</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E9" s="1">
-        <v>5582.3364</v>
+        <v>5571.121</v>
       </c>
       <c r="F9" s="1">
-        <v>736.4755</v>
+        <v>734.9765</v>
       </c>
       <c r="H9" s="1">
-        <v>77097.0894</v>
+        <v>76788.43150000001</v>
       </c>
       <c r="I9" s="1">
-        <v>856.9457</v>
+        <v>855.2305</v>
       </c>
       <c r="J9" s="1">
-        <v>77954.03509999999</v>
+        <v>77643.66190000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70342.77830000001</v>
+        <v>70342.0922</v>
       </c>
       <c r="L9" s="1">
-        <v>12.601</v>
+        <v>12.6262</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>4401.407</v>
+        <v>4392.5811</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-5769.9822</v>
+        <v>-5778.465</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0599</v>
+        <v>-0.0604</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.9322</v>
       </c>
       <c r="C10" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D10" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E10" s="1">
-        <v>6318.8118</v>
+        <v>6306.0975</v>
       </c>
       <c r="F10" s="1">
-        <v>809.0424</v>
+        <v>807.2429</v>
       </c>
       <c r="H10" s="1">
-        <v>88034.9504</v>
+        <v>87681.87119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>5086.9635</v>
+        <v>5076.7655</v>
       </c>
       <c r="J10" s="1">
-        <v>93121.914</v>
+        <v>92758.6366</v>
       </c>
       <c r="K10" s="1">
-        <v>80514.16740000001</v>
+        <v>80513.13830000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.742</v>
+        <v>12.7675</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11271.7409</v>
+        <v>-11269.1914</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0588</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.5846</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E11" s="1">
-        <v>7127.8543</v>
+        <v>7113.3404</v>
       </c>
       <c r="F11" s="1">
-        <v>895.6772999999999</v>
+        <v>893.6852</v>
       </c>
       <c r="H11" s="1">
-        <v>89701.1949</v>
+        <v>89339.28690000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3815.2226</v>
+        <v>3807.5741</v>
       </c>
       <c r="J11" s="1">
-        <v>93516.4175</v>
+        <v>93146.861</v>
       </c>
       <c r="K11" s="1">
-        <v>91785.9083</v>
+        <v>91782.3296</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8771</v>
+        <v>12.9028</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11271.7409</v>
+        <v>-11269.1914</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0931</v>
+        <v>-0.0935</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.2867</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E12" s="1">
-        <v>8023.5316</v>
+        <v>8007.0255</v>
       </c>
       <c r="F12" s="1">
-        <v>917.3937</v>
+        <v>915.3535000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>98582.7257</v>
+        <v>98182.9479</v>
       </c>
       <c r="I12" s="1">
-        <v>2543.4818</v>
+        <v>2538.3827</v>
       </c>
       <c r="J12" s="1">
-        <v>101126.2075</v>
+        <v>100721.3306</v>
       </c>
       <c r="K12" s="1">
-        <v>103057.6492</v>
+        <v>103051.521</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8444</v>
+        <v>12.8701</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3207.5344</v>
+        <v>3201.0032</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8064.2065</v>
+        <v>-8068.1882</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0231</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.0645</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E13" s="1">
-        <v>8940.925300000001</v>
+        <v>8922.379000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1108.2916</v>
+        <v>1105.3797</v>
       </c>
       <c r="H13" s="1">
-        <v>116808.7183</v>
+        <v>116333.5467</v>
       </c>
       <c r="I13" s="1">
-        <v>4479.2753</v>
+        <v>4470.1945</v>
       </c>
       <c r="J13" s="1">
-        <v>121287.9936</v>
+        <v>120803.7412</v>
       </c>
       <c r="K13" s="1">
-        <v>114329.3901</v>
+        <v>114320.7124</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7872</v>
+        <v>12.8128</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14479.2753</v>
+        <v>-14470.1945</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0914</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.8083</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E14" s="1">
-        <v>10049.2169</v>
+        <v>10027.7588</v>
       </c>
       <c r="F14" s="1">
-        <v>-10049.2169</v>
+        <v>-10027.7588</v>
       </c>
       <c r="H14" s="1">
-        <v>138762.6011</v>
+        <v>138189.5352</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>138762.6011</v>
+        <v>138189.5352</v>
       </c>
       <c r="K14" s="1">
-        <v>128808.6654</v>
+        <v>128790.9069</v>
       </c>
       <c r="L14" s="1">
-        <v>12.8178</v>
+        <v>12.8434</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138762.6011</v>
+        <v>138189.5352</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0569</v>
+        <v>0.0565</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.0976</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.8505</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="F3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0223</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.8576</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E4" s="1">
-        <v>1822.7122</v>
+        <v>1819.0653</v>
       </c>
       <c r="F4" s="1">
-        <v>707.3107</v>
+        <v>716.0245</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9727</v>
+        <v>10.9947</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8387.007299999999</v>
+        <v>-8507.373900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.5699</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E5" s="1">
-        <v>2530.0229</v>
+        <v>2535.0899</v>
       </c>
       <c r="F5" s="1">
-        <v>652.1822</v>
+        <v>653.4823</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31802.1353</v>
+        <v>31802.1954</v>
       </c>
       <c r="I5" s="1">
-        <v>1612.9927</v>
+        <v>1492.6261</v>
       </c>
       <c r="J5" s="1">
-        <v>33415.1281</v>
+        <v>33294.8215</v>
       </c>
       <c r="K5" s="1">
-        <v>28387.0073</v>
+        <v>28507.3739</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2201</v>
+        <v>11.2451</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8197.8647</v>
+        <v>-8230.674800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.057</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.5994</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E6" s="1">
-        <v>3182.2051</v>
+        <v>3188.5722</v>
       </c>
       <c r="F6" s="1">
-        <v>494.4277</v>
+        <v>495.429</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43276.0802</v>
+        <v>43275.939</v>
       </c>
       <c r="I6" s="1">
-        <v>3415.1281</v>
+        <v>3261.9513</v>
       </c>
       <c r="J6" s="1">
-        <v>46691.2082</v>
+        <v>46537.8904</v>
       </c>
       <c r="K6" s="1">
-        <v>36584.8719</v>
+        <v>36738.0487</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4967</v>
+        <v>11.5218</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1138.5103</v>
+        <v>1140.7904</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-5585.4095</v>
+        <v>-5610.2219</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0755</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.6663</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E7" s="1">
-        <v>3676.6328</v>
+        <v>3684.0011</v>
       </c>
       <c r="F7" s="1">
-        <v>414.3786</v>
+        <v>415.1995</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>53922.5995</v>
+        <v>53922.7244</v>
       </c>
       <c r="I7" s="1">
-        <v>7829.7186</v>
+        <v>7651.7295</v>
       </c>
       <c r="J7" s="1">
-        <v>61752.3181</v>
+        <v>61574.4539</v>
       </c>
       <c r="K7" s="1">
-        <v>43308.7918</v>
+        <v>43489.061</v>
       </c>
       <c r="L7" s="1">
-        <v>11.7795</v>
+        <v>11.8048</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6077.4005</v>
+        <v>-6101.6478</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0893</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.701</v>
       </c>
       <c r="C8" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D8" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E8" s="1">
-        <v>4091.0114</v>
+        <v>4099.2007</v>
       </c>
       <c r="F8" s="1">
-        <v>670.5694999999999</v>
+        <v>671.9218</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60141.9581</v>
+        <v>60141.8323</v>
       </c>
       <c r="I8" s="1">
-        <v>11752.3181</v>
+        <v>11550.0817</v>
       </c>
       <c r="J8" s="1">
-        <v>71894.27619999999</v>
+        <v>71691.914</v>
       </c>
       <c r="K8" s="1">
-        <v>49386.1922</v>
+        <v>49590.7088</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0719</v>
+        <v>12.0977</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9858.0419</v>
+        <v>-9897.743899999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.8109</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E9" s="1">
-        <v>4761.5808</v>
+        <v>4771.1224</v>
       </c>
       <c r="F9" s="1">
-        <v>1030.9453</v>
+        <v>1033.0028</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>65761.7169</v>
+        <v>65761.8119</v>
       </c>
       <c r="I9" s="1">
-        <v>11894.2762</v>
+        <v>11652.3378</v>
       </c>
       <c r="J9" s="1">
-        <v>77655.99310000001</v>
+        <v>77414.1498</v>
       </c>
       <c r="K9" s="1">
-        <v>59244.2341</v>
+        <v>59488.4526</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4421</v>
+        <v>12.4684</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3681.9102</v>
+        <v>3689.2806</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10556.3729</v>
+        <v>-10606.0325</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0518</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.9322</v>
       </c>
       <c r="C10" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D10" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E10" s="1">
-        <v>5792.5262</v>
+        <v>5804.1253</v>
       </c>
       <c r="F10" s="1">
-        <v>667.3294</v>
+        <v>668.6925</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80702.63340000001</v>
+        <v>80702.29919999999</v>
       </c>
       <c r="I10" s="1">
-        <v>11337.9033</v>
+        <v>11046.3053</v>
       </c>
       <c r="J10" s="1">
-        <v>92040.5367</v>
+        <v>91748.6044</v>
       </c>
       <c r="K10" s="1">
-        <v>73482.5172</v>
+        <v>73783.7657</v>
       </c>
       <c r="L10" s="1">
-        <v>12.6857</v>
+        <v>12.7123</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9297.366599999999</v>
+        <v>-9335.0139</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.05</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.5846</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E11" s="1">
-        <v>6459.8556</v>
+        <v>6472.8178</v>
       </c>
       <c r="F11" s="1">
-        <v>1486.3644</v>
+        <v>1489.346</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81294.6986</v>
+        <v>81294.7074</v>
       </c>
       <c r="I11" s="1">
-        <v>12040.5367</v>
+        <v>11711.2914</v>
       </c>
       <c r="J11" s="1">
-        <v>93335.23540000001</v>
+        <v>93005.9988</v>
       </c>
       <c r="K11" s="1">
-        <v>82779.8838</v>
+        <v>83118.77959999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8145</v>
+        <v>12.8412</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-18705.3014</v>
+        <v>-18780.3556</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0853</v>
+        <v>-0.0859</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.2867</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E12" s="1">
-        <v>7946.22</v>
+        <v>7962.1638</v>
       </c>
       <c r="F12" s="1">
-        <v>1006.5501</v>
+        <v>1008.5672</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97632.8211</v>
+        <v>97632.8487</v>
       </c>
       <c r="I12" s="1">
-        <v>3335.2354</v>
+        <v>2930.9358</v>
       </c>
       <c r="J12" s="1">
-        <v>100968.0564</v>
+        <v>100563.7845</v>
       </c>
       <c r="K12" s="1">
-        <v>101485.1852</v>
+        <v>101899.1353</v>
       </c>
       <c r="L12" s="1">
-        <v>12.7715</v>
+        <v>12.7979</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2906.935</v>
+        <v>2912.768</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9460.243899999999</v>
+        <v>-9504.004800000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0229</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.0645</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E13" s="1">
-        <v>8952.7701</v>
+        <v>8970.731</v>
       </c>
       <c r="F13" s="1">
-        <v>232.4265</v>
+        <v>232.8523</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>116963.4646</v>
+        <v>116963.9784</v>
       </c>
       <c r="I13" s="1">
-        <v>3874.9914</v>
+        <v>3426.9309</v>
       </c>
       <c r="J13" s="1">
-        <v>120838.456</v>
+        <v>120390.9094</v>
       </c>
       <c r="K13" s="1">
-        <v>113852.3641</v>
+        <v>114315.9081</v>
       </c>
       <c r="L13" s="1">
-        <v>12.717</v>
+        <v>12.7432</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3036.5354</v>
+        <v>-3048.1997</v>
       </c>
       <c r="Q13" s="3">
         <v>0.08890000000000001</v>
@@ -2086,34 +2086,34 @@
         <v>13.8083</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E14" s="1">
-        <v>9185.1965</v>
+        <v>9203.5833</v>
       </c>
       <c r="F14" s="1">
-        <v>-9185.1965</v>
+        <v>-9203.5833</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126831.9492</v>
+        <v>126831.8199</v>
       </c>
       <c r="I14" s="1">
-        <v>10838.456</v>
+        <v>10378.7312</v>
       </c>
       <c r="J14" s="1">
-        <v>137670.4052</v>
+        <v>137210.5511</v>
       </c>
       <c r="K14" s="1">
-        <v>116888.8996</v>
+        <v>117364.1078</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7258</v>
+        <v>12.752</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126831.9492</v>
+        <v>126831.8199</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0522</v>
+        <v>0.0523</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.0976</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.8505</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="F3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0223</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.8576</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E4" s="1">
-        <v>1822.7122</v>
+        <v>1819.0653</v>
       </c>
       <c r="F4" s="1">
-        <v>719.9819</v>
+        <v>728.7211</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9727</v>
+        <v>10.9947</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8537.257299999999</v>
+        <v>-8658.227000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.5699</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E5" s="1">
-        <v>2542.6941</v>
+        <v>2547.7864</v>
       </c>
       <c r="F5" s="1">
-        <v>663.4571999999999</v>
+        <v>664.7798</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31961.411</v>
+        <v>31961.4714</v>
       </c>
       <c r="I5" s="1">
-        <v>1462.7427</v>
+        <v>1341.773</v>
       </c>
       <c r="J5" s="1">
-        <v>33424.1538</v>
+        <v>33303.2444</v>
       </c>
       <c r="K5" s="1">
-        <v>28537.2573</v>
+        <v>28658.227</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2232</v>
+        <v>11.2483</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8339.590200000001</v>
+        <v>-8372.9683</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0573</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.5994</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E6" s="1">
-        <v>3206.1513</v>
+        <v>3212.5663</v>
       </c>
       <c r="F6" s="1">
-        <v>507.4321</v>
+        <v>508.4595</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43601.734</v>
+        <v>43601.5918</v>
       </c>
       <c r="I6" s="1">
-        <v>3123.1525</v>
+        <v>2968.8047</v>
       </c>
       <c r="J6" s="1">
-        <v>46724.8865</v>
+        <v>46570.3966</v>
       </c>
       <c r="K6" s="1">
-        <v>36876.8475</v>
+        <v>37031.1953</v>
       </c>
       <c r="L6" s="1">
-        <v>11.5019</v>
+        <v>11.527</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1144.2124</v>
+        <v>1146.5039</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-5756.5599</v>
+        <v>-5782.0707</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.076</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.6663</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E7" s="1">
-        <v>3713.5834</v>
+        <v>3721.0258</v>
       </c>
       <c r="F7" s="1">
-        <v>428.9078</v>
+        <v>429.7578</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>54464.5284</v>
+        <v>54464.6545</v>
       </c>
       <c r="I7" s="1">
-        <v>7366.5927</v>
+        <v>7186.734</v>
       </c>
       <c r="J7" s="1">
-        <v>61831.1211</v>
+        <v>61651.3885</v>
       </c>
       <c r="K7" s="1">
-        <v>43777.6197</v>
+        <v>43959.7699</v>
       </c>
       <c r="L7" s="1">
-        <v>11.7885</v>
+        <v>11.8139</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6290.4904</v>
+        <v>-6315.591</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.701</v>
       </c>
       <c r="C8" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D8" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E8" s="1">
-        <v>4142.4912</v>
+        <v>4150.7835</v>
       </c>
       <c r="F8" s="1">
-        <v>691.1115</v>
+        <v>692.5051</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60898.7632</v>
+        <v>60898.6359</v>
       </c>
       <c r="I8" s="1">
-        <v>11076.1023</v>
+        <v>10871.143</v>
       </c>
       <c r="J8" s="1">
-        <v>71974.8655</v>
+        <v>71769.7789</v>
       </c>
       <c r="K8" s="1">
-        <v>50068.1101</v>
+        <v>50275.3609</v>
       </c>
       <c r="L8" s="1">
-        <v>12.0865</v>
+        <v>12.1123</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10160.0306</v>
+        <v>-10200.9465</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.8109</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E9" s="1">
-        <v>4833.6027</v>
+        <v>4843.2887</v>
       </c>
       <c r="F9" s="1">
-        <v>1061.3127</v>
+        <v>1063.4309</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66756.4041</v>
+        <v>66756.5006</v>
       </c>
       <c r="I9" s="1">
-        <v>10916.0716</v>
+        <v>10670.1964</v>
       </c>
       <c r="J9" s="1">
-        <v>77672.4757</v>
+        <v>77426.697</v>
       </c>
       <c r="K9" s="1">
-        <v>60228.1407</v>
+        <v>60476.3075</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4603</v>
+        <v>12.4866</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3728.2421</v>
+        <v>3735.7052</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10929.4417</v>
+        <v>-10980.6898</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0525</v>
+        <v>-0.0531</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.9322</v>
       </c>
       <c r="C10" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D10" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E10" s="1">
-        <v>5894.9155</v>
+        <v>5906.7196</v>
       </c>
       <c r="F10" s="1">
-        <v>695.6559</v>
+        <v>697.0762999999999</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82129.14109999999</v>
+        <v>82128.8009</v>
       </c>
       <c r="I10" s="1">
-        <v>9986.6299</v>
+        <v>9689.506600000001</v>
       </c>
       <c r="J10" s="1">
-        <v>92115.77099999999</v>
+        <v>91818.3075</v>
       </c>
       <c r="K10" s="1">
-        <v>74885.8245</v>
+        <v>75192.7025</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7035</v>
+        <v>12.73</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9692.0172</v>
+        <v>-9731.254199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0507</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.5846</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E11" s="1">
-        <v>6590.5714</v>
+        <v>6603.7958</v>
       </c>
       <c r="F11" s="1">
-        <v>1536.8434</v>
+        <v>1539.9263</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>82939.7043</v>
+        <v>82939.7133</v>
       </c>
       <c r="I11" s="1">
-        <v>10294.6127</v>
+        <v>9958.252399999999</v>
       </c>
       <c r="J11" s="1">
-        <v>93234.3171</v>
+        <v>92897.9657</v>
       </c>
       <c r="K11" s="1">
-        <v>84577.8417</v>
+        <v>84923.9567</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8332</v>
+        <v>12.8599</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-19340.5598</v>
+        <v>-19418.1631</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.08699999999999999</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.2867</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E12" s="1">
-        <v>8127.4148</v>
+        <v>8143.7222</v>
       </c>
       <c r="F12" s="1">
-        <v>891.5374</v>
+        <v>856.1313</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99859.1072</v>
+        <v>99859.1355</v>
       </c>
       <c r="I12" s="1">
-        <v>954.053</v>
+        <v>540.0893</v>
       </c>
       <c r="J12" s="1">
-        <v>100813.1602</v>
+        <v>100399.2248</v>
       </c>
       <c r="K12" s="1">
-        <v>103918.4015</v>
+        <v>104342.1198</v>
       </c>
       <c r="L12" s="1">
-        <v>12.7862</v>
+        <v>12.8126</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>2965.7571</v>
+        <v>2971.7081</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7988.2959</v>
+        <v>-7568.3812</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0235</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.0645</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E13" s="1">
-        <v>9018.9522</v>
+        <v>8999.853499999999</v>
       </c>
       <c r="F13" s="1">
-        <v>423.0948</v>
+        <v>461.0945</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117828.1012</v>
+        <v>117343.6894</v>
       </c>
       <c r="I13" s="1">
-        <v>2965.7571</v>
+        <v>2971.7081</v>
       </c>
       <c r="J13" s="1">
-        <v>120793.8583</v>
+        <v>120315.3975</v>
       </c>
       <c r="K13" s="1">
-        <v>114872.4544</v>
+        <v>114882.2091</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7368</v>
+        <v>12.7649</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5527.5225</v>
+        <v>-6036.0496</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0901</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.8083</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E14" s="1">
-        <v>9442.0471</v>
+        <v>9460.947899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9442.0471</v>
+        <v>-9460.947899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130378.6183</v>
+        <v>130378.4854</v>
       </c>
       <c r="I14" s="1">
-        <v>7438.2346</v>
+        <v>6935.6585</v>
       </c>
       <c r="J14" s="1">
-        <v>137816.8529</v>
+        <v>137314.1439</v>
       </c>
       <c r="K14" s="1">
-        <v>120399.9769</v>
+        <v>120918.2587</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7515</v>
+        <v>12.7808</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130378.6183</v>
+        <v>130378.4854</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0537</v>
@@ -2920,9 +2920,9 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>11.0976</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.8505</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="F3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0223</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.8576</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E4" s="1">
-        <v>1822.7122</v>
+        <v>1819.0653</v>
       </c>
       <c r="F4" s="1">
-        <v>732.6953</v>
+        <v>741.4598999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9727</v>
+        <v>10.9947</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8688.007299999999</v>
+        <v>-8809.5821</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.5699</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E5" s="1">
-        <v>2555.4075</v>
+        <v>2560.5253</v>
       </c>
       <c r="F5" s="1">
-        <v>674.8497</v>
+        <v>676.1951</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32121.2168</v>
+        <v>32121.2774</v>
       </c>
       <c r="I5" s="1">
-        <v>1311.9927</v>
+        <v>1190.4179</v>
       </c>
       <c r="J5" s="1">
-        <v>33433.2095</v>
+        <v>33311.6953</v>
       </c>
       <c r="K5" s="1">
-        <v>28688.0073</v>
+        <v>28809.5821</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2264</v>
+        <v>11.2514</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8482.7932</v>
+        <v>-8516.745199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0576</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.5994</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E6" s="1">
-        <v>3230.2572</v>
+        <v>3236.7204</v>
       </c>
       <c r="F6" s="1">
-        <v>520.6473</v>
+        <v>521.7012</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43929.5598</v>
+        <v>43929.4165</v>
       </c>
       <c r="I6" s="1">
-        <v>2829.1995</v>
+        <v>2673.6727</v>
       </c>
       <c r="J6" s="1">
-        <v>46758.7593</v>
+        <v>46603.0893</v>
       </c>
       <c r="K6" s="1">
-        <v>37170.8005</v>
+        <v>37326.3273</v>
       </c>
       <c r="L6" s="1">
-        <v>11.5071</v>
+        <v>11.5321</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1149.9334</v>
+        <v>1152.2364</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-5930.5569</v>
+        <v>-5956.7777</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0766</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.6663</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E7" s="1">
-        <v>3750.9045</v>
+        <v>3758.4216</v>
       </c>
       <c r="F7" s="1">
-        <v>443.7561</v>
+        <v>444.6357</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55011.8901</v>
+        <v>55012.0175</v>
       </c>
       <c r="I7" s="1">
-        <v>6898.6426</v>
+        <v>6716.895</v>
       </c>
       <c r="J7" s="1">
-        <v>61910.5326</v>
+        <v>61728.9124</v>
       </c>
       <c r="K7" s="1">
-        <v>44251.2908</v>
+        <v>44435.3414</v>
       </c>
       <c r="L7" s="1">
-        <v>11.7975</v>
+        <v>11.8229</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6508.2605</v>
+        <v>-6534.2333</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.701</v>
       </c>
       <c r="C8" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D8" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E8" s="1">
-        <v>4194.6606</v>
+        <v>4203.0574</v>
       </c>
       <c r="F8" s="1">
-        <v>712.1724</v>
+        <v>713.6083</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61665.7053</v>
+        <v>61665.5764</v>
       </c>
       <c r="I8" s="1">
-        <v>10390.382</v>
+        <v>10182.6617</v>
       </c>
       <c r="J8" s="1">
-        <v>72056.0874</v>
+        <v>71848.2381</v>
       </c>
       <c r="K8" s="1">
-        <v>50759.5513</v>
+        <v>50969.5746</v>
       </c>
       <c r="L8" s="1">
-        <v>12.101</v>
+        <v>12.1268</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10469.6468</v>
+        <v>-10511.8073</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.8109</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E9" s="1">
-        <v>4906.833</v>
+        <v>4916.6657</v>
       </c>
       <c r="F9" s="1">
-        <v>1092.5375</v>
+        <v>1094.7181</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67767.78</v>
+        <v>67767.878</v>
       </c>
       <c r="I9" s="1">
-        <v>9920.7353</v>
+        <v>9670.854499999999</v>
       </c>
       <c r="J9" s="1">
-        <v>77688.5153</v>
+        <v>77438.7325</v>
       </c>
       <c r="K9" s="1">
-        <v>61229.1981</v>
+        <v>61481.3819</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4784</v>
+        <v>12.5047</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3775.1945</v>
+        <v>3782.7516</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11313.7311</v>
+        <v>-11366.6139</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0532</v>
+        <v>-0.0539</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.9322</v>
       </c>
       <c r="C10" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D10" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E10" s="1">
-        <v>5999.3705</v>
+        <v>6011.3837</v>
       </c>
       <c r="F10" s="1">
-        <v>724.9999</v>
+        <v>726.4796</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83584.4293</v>
+        <v>83584.0831</v>
       </c>
       <c r="I10" s="1">
-        <v>8607.004199999999</v>
+        <v>8304.240599999999</v>
       </c>
       <c r="J10" s="1">
-        <v>92191.4335</v>
+        <v>91888.3236</v>
       </c>
       <c r="K10" s="1">
-        <v>76318.1237</v>
+        <v>76630.74739999999</v>
       </c>
       <c r="L10" s="1">
-        <v>12.721</v>
+        <v>12.7476</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10100.8434</v>
+        <v>-10141.7272</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0514</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.5846</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E11" s="1">
-        <v>6724.3704</v>
+        <v>6737.8633</v>
       </c>
       <c r="F11" s="1">
-        <v>1470.5402</v>
+        <v>1440.349</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>84623.51119999999</v>
+        <v>84623.5203</v>
       </c>
       <c r="I11" s="1">
-        <v>8506.1608</v>
+        <v>8162.5134</v>
       </c>
       <c r="J11" s="1">
-        <v>93129.67200000001</v>
+        <v>92786.0337</v>
       </c>
       <c r="K11" s="1">
-        <v>86418.96709999999</v>
+        <v>86772.4746</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8516</v>
+        <v>12.8783</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-18506.1608</v>
+        <v>-18162.5134</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0887</v>
+        <v>-0.0893</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.2867</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E12" s="1">
-        <v>8194.910599999999</v>
+        <v>8178.2123</v>
       </c>
       <c r="F12" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100688.4081</v>
+        <v>100282.0576</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>100688.4081</v>
+        <v>100282.0576</v>
       </c>
       <c r="K12" s="1">
-        <v>104925.1279</v>
+        <v>104934.988</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8037</v>
+        <v>12.831</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3025.9667</v>
+        <v>3032.0385</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6974.0333</v>
+        <v>-6967.9615</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.0645</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E13" s="1">
-        <v>9008.7988</v>
+        <v>8990.474200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>698.8081</v>
+        <v>736.5651</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117695.4518</v>
+        <v>117221.3995</v>
       </c>
       <c r="I13" s="1">
-        <v>3025.9667</v>
+        <v>3032.0385</v>
       </c>
       <c r="J13" s="1">
-        <v>120721.4185</v>
+        <v>120253.4379</v>
       </c>
       <c r="K13" s="1">
-        <v>114925.1279</v>
+        <v>114934.988</v>
       </c>
       <c r="L13" s="1">
-        <v>12.757</v>
+        <v>12.7841</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9129.578299999999</v>
+        <v>-9642.153</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0906</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.8083</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E14" s="1">
-        <v>9707.606900000001</v>
+        <v>9727.0394</v>
       </c>
       <c r="F14" s="1">
-        <v>-9707.606900000001</v>
+        <v>-9727.0394</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134045.5481</v>
+        <v>134045.4115</v>
       </c>
       <c r="I14" s="1">
-        <v>3896.3883</v>
+        <v>3389.8855</v>
       </c>
       <c r="J14" s="1">
-        <v>137941.9365</v>
+        <v>137435.2969</v>
       </c>
       <c r="K14" s="1">
-        <v>124054.7062</v>
+        <v>124577.141</v>
       </c>
       <c r="L14" s="1">
-        <v>12.7791</v>
+        <v>12.8073</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134045.5481</v>
+        <v>134045.4115</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0552</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.0976</v>
       </c>
       <c r="C2" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D2" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.8505</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E3" s="1">
-        <v>901.0957</v>
+        <v>899.2967</v>
       </c>
       <c r="F3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9777.3392</v>
+        <v>9738.304599999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0223</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.8576</v>
       </c>
       <c r="C4" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D4" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E4" s="1">
-        <v>1822.7122</v>
+        <v>1819.0653</v>
       </c>
       <c r="F4" s="1">
-        <v>745.4508</v>
+        <v>754.241</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21612.9927</v>
+        <v>21526.6373</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9727</v>
+        <v>10.9947</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8839.257299999999</v>
+        <v>-8961.439200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.5699</v>
       </c>
       <c r="C5" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D5" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E5" s="1">
-        <v>2568.163</v>
+        <v>2573.3063</v>
       </c>
       <c r="F5" s="1">
-        <v>686.3604</v>
+        <v>687.7288</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32281.5525</v>
+        <v>32281.6135</v>
       </c>
       <c r="I5" s="1">
-        <v>1160.7427</v>
+        <v>1038.5608</v>
       </c>
       <c r="J5" s="1">
-        <v>33442.2953</v>
+        <v>33320.1743</v>
       </c>
       <c r="K5" s="1">
-        <v>28839.2573</v>
+        <v>28961.4392</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2295</v>
+        <v>11.2546</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8627.4812</v>
+        <v>-8662.013000000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0579</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.5994</v>
       </c>
       <c r="C6" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D6" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E6" s="1">
-        <v>3254.5234</v>
+        <v>3261.0352</v>
       </c>
       <c r="F6" s="1">
-        <v>534.0753</v>
+        <v>535.1563</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44259.5656</v>
+        <v>44259.4213</v>
       </c>
       <c r="I6" s="1">
-        <v>2533.2615</v>
+        <v>2376.5478</v>
       </c>
       <c r="J6" s="1">
-        <v>46792.8271</v>
+        <v>46635.9691</v>
       </c>
       <c r="K6" s="1">
-        <v>37466.7385</v>
+        <v>37623.4522</v>
       </c>
       <c r="L6" s="1">
-        <v>11.5122</v>
+        <v>11.5373</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>1155.6734</v>
+        <v>1157.9879</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6107.4303</v>
+        <v>-6134.3726</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0771</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.6663</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E7" s="1">
-        <v>3788.5987</v>
+        <v>3796.1914</v>
       </c>
       <c r="F7" s="1">
-        <v>458.9286</v>
+        <v>459.8385</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55564.7252</v>
+        <v>55564.8539</v>
       </c>
       <c r="I7" s="1">
-        <v>6425.8312</v>
+        <v>6242.1752</v>
       </c>
       <c r="J7" s="1">
-        <v>61990.5565</v>
+        <v>61807.0291</v>
       </c>
       <c r="K7" s="1">
-        <v>44729.8421</v>
+        <v>44915.8127</v>
       </c>
       <c r="L7" s="1">
-        <v>11.8064</v>
+        <v>11.8318</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6730.7841</v>
+        <v>-6757.6479</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0915</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.701</v>
       </c>
       <c r="C8" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D8" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E8" s="1">
-        <v>4247.5273</v>
+        <v>4256.0299</v>
       </c>
       <c r="F8" s="1">
-        <v>733.7626</v>
+        <v>735.2418</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62442.8985</v>
+        <v>62442.7679</v>
       </c>
       <c r="I8" s="1">
-        <v>9695.047200000001</v>
+        <v>9484.5272</v>
       </c>
       <c r="J8" s="1">
-        <v>72137.94560000001</v>
+        <v>71927.29519999999</v>
       </c>
       <c r="K8" s="1">
-        <v>51460.6262</v>
+        <v>51673.4606</v>
       </c>
       <c r="L8" s="1">
-        <v>12.1154</v>
+        <v>12.1412</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10787.0434</v>
+        <v>-10830.4797</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.8109</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E9" s="1">
-        <v>4981.2898</v>
+        <v>4991.2717</v>
       </c>
       <c r="F9" s="1">
-        <v>1124.6403</v>
+        <v>1126.8851</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68796.0958</v>
+        <v>68796.19530000001</v>
       </c>
       <c r="I9" s="1">
-        <v>8908.003699999999</v>
+        <v>8654.047500000001</v>
       </c>
       <c r="J9" s="1">
-        <v>77704.0996</v>
+        <v>77450.24280000001</v>
       </c>
       <c r="K9" s="1">
-        <v>62247.6697</v>
+        <v>62503.9404</v>
       </c>
       <c r="L9" s="1">
-        <v>12.4963</v>
+        <v>12.5226</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>3822.7745</v>
+        <v>3830.4269</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11709.5207</v>
+        <v>-11764.0856</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.054</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.9322</v>
       </c>
       <c r="C10" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D10" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E10" s="1">
-        <v>6105.9302</v>
+        <v>6118.1568</v>
       </c>
       <c r="F10" s="1">
-        <v>755.3923</v>
+        <v>756.9334</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85069.0404</v>
+        <v>85068.68799999999</v>
       </c>
       <c r="I10" s="1">
-        <v>7198.483</v>
+        <v>6889.9619</v>
       </c>
       <c r="J10" s="1">
-        <v>92267.52340000001</v>
+        <v>91958.6499</v>
       </c>
       <c r="K10" s="1">
-        <v>77779.96490000001</v>
+        <v>78098.4529</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7384</v>
+        <v>12.765</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10524.2765</v>
+        <v>-10566.8658</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.052</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.5846</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E11" s="1">
-        <v>6861.3225</v>
+        <v>6875.0902</v>
       </c>
       <c r="F11" s="1">
-        <v>1324.9691</v>
+        <v>1294.477</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>86346.9988</v>
+        <v>86347.00810000001</v>
       </c>
       <c r="I11" s="1">
-        <v>6674.2065</v>
+        <v>6323.0961</v>
       </c>
       <c r="J11" s="1">
-        <v>93021.2053</v>
+        <v>92670.1042</v>
       </c>
       <c r="K11" s="1">
-        <v>88304.2414</v>
+        <v>88665.3187</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8699</v>
+        <v>12.8966</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-16674.2065</v>
+        <v>-16323.0961</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.09039999999999999</v>
+        <v>-0.0911</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.2867</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E12" s="1">
-        <v>8186.2916</v>
+        <v>8169.5672</v>
       </c>
       <c r="F12" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100582.509</v>
+        <v>100176.0502</v>
       </c>
       <c r="I12" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>100582.509</v>
+        <v>100176.0502</v>
       </c>
       <c r="K12" s="1">
-        <v>104978.4479</v>
+        <v>104988.4147</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8237</v>
+        <v>12.8512</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3087.5951</v>
+        <v>3093.7906</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6912.4049</v>
+        <v>-6906.2094</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.0645</v>
       </c>
       <c r="C13" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D13" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E13" s="1">
-        <v>9000.1798</v>
+        <v>8981.829100000001</v>
       </c>
       <c r="F13" s="1">
-        <v>981.9944</v>
+        <v>1000.2361</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117582.8488</v>
+        <v>117108.6809</v>
       </c>
       <c r="I13" s="1">
-        <v>3087.5951</v>
+        <v>3093.7906</v>
       </c>
       <c r="J13" s="1">
-        <v>120670.444</v>
+        <v>120202.4715</v>
       </c>
       <c r="K13" s="1">
-        <v>114978.4479</v>
+        <v>114988.4147</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7751</v>
+        <v>12.8023</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12829.2655</v>
+        <v>-13093.7906</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0912</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.8083</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E14" s="1">
-        <v>9982.174199999999</v>
+        <v>9982.065199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9982.174199999999</v>
+        <v>-9982.065199999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137836.8554</v>
+        <v>137559.8461</v>
       </c>
       <c r="I14" s="1">
-        <v>258.3297</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>138095.1851</v>
+        <v>137559.8461</v>
       </c>
       <c r="K14" s="1">
-        <v>127807.7134</v>
+        <v>128082.2053</v>
       </c>
       <c r="L14" s="1">
-        <v>12.8036</v>
+        <v>12.8312</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137836.8554</v>
+        <v>137559.8461</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0568</v>
+        <v>0.0565</v>
       </c>
     </row>
   </sheetData>
@@ -4451,10 +4451,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.8178</v>
+        <v>12.8434</v>
       </c>
       <c r="D3" s="1">
-        <v>12.7258</v>
+        <v>12.752</v>
       </c>
       <c r="E3" s="1">
-        <v>12.7515</v>
+        <v>12.7808</v>
       </c>
       <c r="F3" s="1">
-        <v>12.7791</v>
+        <v>12.8073</v>
       </c>
       <c r="G3" s="1">
-        <v>12.8036</v>
+        <v>12.8312</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2414</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3453</v>
+        <v>0.333</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3255</v>
+        <v>0.3149</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3274</v>
+        <v>0.3165</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3291</v>
+        <v>0.3181</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3311</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2041</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2174</v>
+        <v>0.2173</v>
       </c>
       <c r="D5" s="3">
-        <v>0.202</v>
+        <v>0.2027</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2044</v>
+        <v>0.2051</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2066</v>
+        <v>0.2072</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2087</v>
+        <v>0.2093</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.0835</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4951</v>
+        <v>1.4388</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5103</v>
+        <v>1.453</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5024</v>
+        <v>1.4441</v>
       </c>
       <c r="F6" s="4">
-        <v>1.4951</v>
+        <v>1.4374</v>
       </c>
       <c r="G6" s="4">
-        <v>1.4892</v>
+        <v>1.4311</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3084</v>
+        <v>0.2986</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3155</v>
+        <v>0.3057</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3127</v>
+        <v>0.3024</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3104</v>
+        <v>0.3004</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3091</v>
+        <v>0.2988</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8808.6654</v>
+        <v>8790.9069</v>
       </c>
       <c r="D8" s="1">
-        <v>7727.3556</v>
+        <v>7742.839</v>
       </c>
       <c r="E8" s="1">
-        <v>7838.2116</v>
+        <v>7853.9172</v>
       </c>
       <c r="F8" s="1">
-        <v>7951.0946</v>
+        <v>7967.0265</v>
       </c>
       <c r="G8" s="1">
-        <v>8066.043</v>
+        <v>8082.2053</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P14_KFSDIV.xlsx
+++ b/output/1Y_P14_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10089.6995</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0726</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1859</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1538</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1205</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
